--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125072a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125072a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que não procuraram a polícia em decorrência do último furto que foram vítimas, no período de referência de 365 dias (%)</t>
   </si>
@@ -40,16 +40,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -500,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,6 +559,24 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2.632909002591902</v>
+      </c>
+      <c r="D5">
+        <v>2.473199359244653</v>
+      </c>
+      <c r="E5">
+        <v>2.547922837658208</v>
+      </c>
+      <c r="F5">
+        <v>3.408328666747876</v>
+      </c>
+      <c r="G5">
+        <v>4.155362506536362</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -574,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.632909002591902</v>
+        <v>6.375085861657115</v>
       </c>
       <c r="D6">
-        <v>2.473199359244653</v>
+        <v>8.083702731282788</v>
       </c>
       <c r="E6">
-        <v>2.547922837658208</v>
+        <v>9.097609005763362</v>
       </c>
       <c r="F6">
-        <v>3.408328666747876</v>
+        <v>11.2698497555078</v>
       </c>
       <c r="G6">
-        <v>4.155362506536362</v>
+        <v>13.13693345027683</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -597,25 +609,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.375085861657115</v>
+        <v>5.991374631996111</v>
       </c>
       <c r="D7">
-        <v>8.083702731282788</v>
+        <v>6.913553543998343</v>
       </c>
       <c r="E7">
-        <v>9.097609005763362</v>
+        <v>5.695655289473949</v>
       </c>
       <c r="F7">
-        <v>11.2698497555078</v>
+        <v>8.06944073510981</v>
       </c>
       <c r="G7">
-        <v>13.13693345027683</v>
+        <v>11.4194431639354</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>16.96698573600926</v>
+      </c>
+      <c r="D8">
+        <v>11.89291870567989</v>
+      </c>
+      <c r="E8">
+        <v>17.31120059339491</v>
+      </c>
+      <c r="F8">
+        <v>17.06998346690306</v>
+      </c>
+      <c r="G8">
+        <v>21.61714603548646</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -625,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.991374631996111</v>
+        <v>13.43809447125346</v>
       </c>
       <c r="D9">
-        <v>6.913553543998343</v>
+        <v>20.40105226395322</v>
       </c>
       <c r="E9">
-        <v>5.695655289473949</v>
+        <v>17.49536247854208</v>
       </c>
       <c r="F9">
-        <v>8.06944073510981</v>
+        <v>41.4234057734985</v>
       </c>
       <c r="G9">
-        <v>11.4194431639354</v>
+        <v>18.38608571065947</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -648,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>16.96698573600926</v>
+        <v>15.0063445277269</v>
       </c>
       <c r="D10">
-        <v>11.89291870567989</v>
+        <v>17.0292336423275</v>
       </c>
       <c r="E10">
-        <v>17.31120059339491</v>
+        <v>15.30736179479659</v>
       </c>
       <c r="F10">
-        <v>17.06998346690306</v>
+        <v>23.99255499184887</v>
       </c>
       <c r="G10">
-        <v>21.61714603548646</v>
+        <v>34.45537116913358</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -671,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.43809447125346</v>
+        <v>21.7579135629029</v>
       </c>
       <c r="D11">
-        <v>20.40105226395322</v>
+        <v>24.78929392272526</v>
       </c>
       <c r="E11">
-        <v>17.49536247854208</v>
+        <v>20.50245192425723</v>
       </c>
       <c r="F11">
-        <v>41.4234057734985</v>
+        <v>44.71504276797075</v>
       </c>
       <c r="G11">
-        <v>18.38608571065947</v>
+        <v>39.66892563073522</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -694,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.0063445277269</v>
+        <v>9.680764415212083</v>
       </c>
       <c r="D12">
-        <v>17.0292336423275</v>
+        <v>12.7338413034109</v>
       </c>
       <c r="E12">
-        <v>15.30736179479659</v>
+        <v>8.391527873095429</v>
       </c>
       <c r="F12">
-        <v>23.99255499184887</v>
+        <v>11.60939961943408</v>
       </c>
       <c r="G12">
-        <v>34.45537116913358</v>
+        <v>20.9943498628186</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -717,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>21.7579135629029</v>
+        <v>16.37021018400737</v>
       </c>
       <c r="D13">
-        <v>24.78929392272526</v>
+        <v>23.46699404977113</v>
       </c>
       <c r="E13">
-        <v>20.50245192425723</v>
+        <v>22.53440603276327</v>
       </c>
       <c r="F13">
-        <v>44.71504276797075</v>
+        <v>43.59718860362918</v>
       </c>
       <c r="G13">
-        <v>39.66892563073522</v>
+        <v>44.13322769021133</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -740,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.680764415212083</v>
+        <v>15.06332176171786</v>
       </c>
       <c r="D14">
-        <v>12.7338413034109</v>
+        <v>18.13795463656866</v>
       </c>
       <c r="E14">
-        <v>8.391527873095429</v>
+        <v>18.4985587549719</v>
       </c>
       <c r="F14">
-        <v>11.60939961943408</v>
+        <v>24.03943331772947</v>
       </c>
       <c r="G14">
-        <v>20.9943498628186</v>
+        <v>20.09754705673402</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -763,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>16.37021018400737</v>
+        <v>4.833310126708788</v>
       </c>
       <c r="D15">
-        <v>23.46699404977113</v>
+        <v>4.312235019934318</v>
       </c>
       <c r="E15">
-        <v>22.53440603276327</v>
+        <v>4.87025514181937</v>
       </c>
       <c r="F15">
-        <v>43.59718860362918</v>
+        <v>5.811302173288751</v>
       </c>
       <c r="G15">
-        <v>44.13322769021133</v>
+        <v>7.287440946040875</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -786,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15.06332176171786</v>
+        <v>15.66434151158015</v>
       </c>
       <c r="D16">
-        <v>18.13795463656866</v>
+        <v>14.54601034404472</v>
       </c>
       <c r="E16">
-        <v>18.4985587549719</v>
+        <v>20.48832072348523</v>
       </c>
       <c r="F16">
-        <v>24.03943331772947</v>
+        <v>20.70503687874682</v>
       </c>
       <c r="G16">
-        <v>20.09754705673402</v>
+        <v>23.23893826383744</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -809,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.833310126708788</v>
+        <v>10.36063631634273</v>
       </c>
       <c r="D17">
-        <v>4.312235019934318</v>
+        <v>22.65164297676614</v>
       </c>
       <c r="E17">
-        <v>4.87025514181937</v>
+        <v>16.49393805982287</v>
       </c>
       <c r="F17">
-        <v>5.811302173288751</v>
+        <v>19.3361264126696</v>
       </c>
       <c r="G17">
-        <v>7.287440946040875</v>
+        <v>26.54394107895114</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -832,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>15.66434151158015</v>
+        <v>5.683487851988314</v>
       </c>
       <c r="D18">
-        <v>14.54601034404472</v>
+        <v>10.30320811925201</v>
       </c>
       <c r="E18">
-        <v>20.48832072348523</v>
+        <v>6.687918809325012</v>
       </c>
       <c r="F18">
-        <v>20.70503687874682</v>
+        <v>15.86374047282538</v>
       </c>
       <c r="G18">
-        <v>23.23893826383744</v>
+        <v>14.39794571026082</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -855,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.36063631634273</v>
+        <v>19.35511323044288</v>
       </c>
       <c r="D19">
-        <v>22.65164297676614</v>
+        <v>16.66954584167746</v>
       </c>
       <c r="E19">
-        <v>16.49393805982287</v>
+        <v>17.37628866410627</v>
       </c>
       <c r="F19">
-        <v>19.3361264126696</v>
+        <v>20.75131222866806</v>
       </c>
       <c r="G19">
-        <v>26.54394107895114</v>
+        <v>27.08571859123361</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -878,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.683487851988314</v>
+        <v>16.97168690706013</v>
       </c>
       <c r="D20">
-        <v>10.30320811925201</v>
+        <v>15.42892390950058</v>
       </c>
       <c r="E20">
-        <v>6.687918809325012</v>
+        <v>15.52866979909482</v>
       </c>
       <c r="F20">
-        <v>15.86374047282538</v>
+        <v>27.56460711066536</v>
       </c>
       <c r="G20">
-        <v>14.39794571026082</v>
+        <v>38.90292001134645</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -901,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>19.35511323044288</v>
+        <v>10.14137370194147</v>
       </c>
       <c r="D21">
-        <v>16.66954584167746</v>
+        <v>7.800981702052873</v>
       </c>
       <c r="E21">
-        <v>17.37628866410627</v>
+        <v>10.04198438236915</v>
       </c>
       <c r="F21">
-        <v>20.75131222866806</v>
+        <v>11.09825786305139</v>
       </c>
       <c r="G21">
-        <v>27.08571859123361</v>
+        <v>21.84831506983642</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -924,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>16.97168690706013</v>
+        <v>19.24246079168264</v>
       </c>
       <c r="D22">
-        <v>15.42892390950058</v>
+        <v>17.78189592283594</v>
       </c>
       <c r="E22">
-        <v>15.52866979909482</v>
+        <v>21.9733890254004</v>
       </c>
       <c r="F22">
-        <v>27.56460711066536</v>
+        <v>31.93137161022031</v>
       </c>
       <c r="G22">
-        <v>38.90292001134645</v>
+        <v>49.59004304141899</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -947,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.14137370194147</v>
+        <v>12.25175132216617</v>
       </c>
       <c r="D23">
-        <v>7.800981702052873</v>
+        <v>13.58310337783003</v>
       </c>
       <c r="E23">
-        <v>10.04198438236915</v>
+        <v>14.78983598187796</v>
       </c>
       <c r="F23">
-        <v>11.09825786305139</v>
+        <v>25.36653951206343</v>
       </c>
       <c r="G23">
-        <v>21.84831506983642</v>
+        <v>40.59013996068546</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -970,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>19.24246079168264</v>
+        <v>6.832114350244145</v>
       </c>
       <c r="D24">
-        <v>17.78189592283594</v>
+        <v>7.614146597512018</v>
       </c>
       <c r="E24">
-        <v>21.9733890254004</v>
+        <v>10.06978967475024</v>
       </c>
       <c r="F24">
-        <v>31.93137161022031</v>
+        <v>8.36185139486032</v>
       </c>
       <c r="G24">
-        <v>49.59004304141899</v>
+        <v>10.62794865995665</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -993,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.25175132216617</v>
+        <v>4.458493414284805</v>
       </c>
       <c r="D25">
-        <v>13.58310337783003</v>
+        <v>4.652859130008762</v>
       </c>
       <c r="E25">
-        <v>14.78983598187796</v>
+        <v>4.643470576491446</v>
       </c>
       <c r="F25">
-        <v>25.36653951206343</v>
+        <v>5.733066327761974</v>
       </c>
       <c r="G25">
-        <v>40.59013996068546</v>
+        <v>6.677486592025885</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1016,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>6.832114350244145</v>
+        <v>6.607187480069046</v>
       </c>
       <c r="D26">
-        <v>7.614146597512018</v>
+        <v>7.743160173407217</v>
       </c>
       <c r="E26">
-        <v>10.06978967475024</v>
+        <v>7.515753504577258</v>
       </c>
       <c r="F26">
-        <v>8.36185139486032</v>
+        <v>8.46521325507452</v>
       </c>
       <c r="G26">
-        <v>10.62794865995665</v>
+        <v>9.979804660810627</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1039,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>4.458493414284805</v>
+        <v>18.80032698764636</v>
       </c>
       <c r="D27">
-        <v>4.652859130008762</v>
+        <v>12.57275939393474</v>
       </c>
       <c r="E27">
-        <v>4.643470576491446</v>
+        <v>17.44013646882548</v>
       </c>
       <c r="F27">
-        <v>5.733066327761974</v>
+        <v>15.63268396857178</v>
       </c>
       <c r="G27">
-        <v>6.677486592025885</v>
+        <v>29.98886014067006</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1062,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>6.607187480069046</v>
+        <v>11.11173662080252</v>
       </c>
       <c r="D28">
-        <v>7.743160173407217</v>
+        <v>11.30786145316237</v>
       </c>
       <c r="E28">
-        <v>7.515753504577258</v>
+        <v>10.76954216742691</v>
       </c>
       <c r="F28">
-        <v>8.46521325507452</v>
+        <v>10.64788579861943</v>
       </c>
       <c r="G28">
-        <v>9.979804660810627</v>
+        <v>13.4768608916003</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1085,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>18.80032698764636</v>
+        <v>6.996747547718256</v>
       </c>
       <c r="D29">
-        <v>12.57275939393474</v>
+        <v>7.01175208058734</v>
       </c>
       <c r="E29">
-        <v>17.44013646882548</v>
+        <v>6.919991678011462</v>
       </c>
       <c r="F29">
-        <v>15.63268396857178</v>
+        <v>11.30528321251948</v>
       </c>
       <c r="G29">
-        <v>29.98886014067006</v>
+        <v>10.84217998333535</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1108,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>11.11173662080252</v>
+        <v>5.822468573800889</v>
       </c>
       <c r="D30">
-        <v>11.30786145316237</v>
+        <v>5.459650144034602</v>
       </c>
       <c r="E30">
-        <v>10.76954216742691</v>
+        <v>5.794045910560769</v>
       </c>
       <c r="F30">
-        <v>10.64788579861943</v>
+        <v>7.968545321283076</v>
       </c>
       <c r="G30">
-        <v>13.4768608916003</v>
+        <v>8.74231194326109</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1131,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>6.996747547718256</v>
+        <v>9.61246468714265</v>
       </c>
       <c r="D31">
-        <v>7.01175208058734</v>
+        <v>10.52970502021678</v>
       </c>
       <c r="E31">
-        <v>6.919991678011462</v>
+        <v>9.117453581130718</v>
       </c>
       <c r="F31">
-        <v>11.30528321251948</v>
+        <v>13.51266166894108</v>
       </c>
       <c r="G31">
-        <v>10.84217998333535</v>
+        <v>13.80522571218298</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1154,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>5.822468573800889</v>
+        <v>13.23501659591344</v>
       </c>
       <c r="D32">
-        <v>5.459650144034602</v>
+        <v>13.7303603448562</v>
       </c>
       <c r="E32">
-        <v>5.794045910560769</v>
+        <v>12.47640769751377</v>
       </c>
       <c r="F32">
-        <v>7.968545321283076</v>
+        <v>17.60199516079442</v>
       </c>
       <c r="G32">
-        <v>8.74231194326109</v>
+        <v>16.64102218099591</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1177,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>9.61246468714265</v>
+        <v>8.501938372265386</v>
       </c>
       <c r="D33">
-        <v>10.52970502021678</v>
+        <v>6.135098423988454</v>
       </c>
       <c r="E33">
-        <v>9.117453581130718</v>
+        <v>8.721617653451062</v>
       </c>
       <c r="F33">
-        <v>13.51266166894108</v>
+        <v>11.6304841720491</v>
       </c>
       <c r="G33">
-        <v>13.80522571218298</v>
+        <v>13.14135521119106</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1200,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>13.23501659591344</v>
+        <v>5.301331587647669</v>
       </c>
       <c r="D34">
-        <v>13.7303603448562</v>
+        <v>5.196023194883076</v>
       </c>
       <c r="E34">
-        <v>12.47640769751377</v>
+        <v>6.152660321161441</v>
       </c>
       <c r="F34">
-        <v>17.60199516079442</v>
+        <v>9.125734326713147</v>
       </c>
       <c r="G34">
-        <v>16.64102218099591</v>
+        <v>9.69580574420503</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1223,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>8.501938372265386</v>
+        <v>14.56669317183671</v>
       </c>
       <c r="D35">
-        <v>6.135098423988454</v>
+        <v>11.93700260743877</v>
       </c>
       <c r="E35">
-        <v>8.721617653451062</v>
+        <v>14.09853275848091</v>
       </c>
       <c r="F35">
-        <v>11.6304841720491</v>
+        <v>17.43761308315373</v>
       </c>
       <c r="G35">
-        <v>13.14135521119106</v>
+        <v>17.37286866515043</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1246,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>5.301331587647669</v>
+        <v>11.65174243561062</v>
       </c>
       <c r="D36">
-        <v>5.196023194883076</v>
+        <v>10.5511504690324</v>
       </c>
       <c r="E36">
-        <v>6.152660321161441</v>
+        <v>13.64718395651025</v>
       </c>
       <c r="F36">
-        <v>9.125734326713147</v>
+        <v>20.60491462698503</v>
       </c>
       <c r="G36">
-        <v>9.69580574420503</v>
+        <v>22.31147154713924</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1269,64 +1299,18 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>14.56669317183671</v>
+        <v>7.319458871202344</v>
       </c>
       <c r="D37">
-        <v>11.93700260743877</v>
+        <v>8.227343208305776</v>
       </c>
       <c r="E37">
-        <v>14.09853275848091</v>
+        <v>9.254491777243667</v>
       </c>
       <c r="F37">
-        <v>17.43761308315373</v>
+        <v>14.33248014017093</v>
       </c>
       <c r="G37">
-        <v>17.37286866515043</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>11.65174243561062</v>
-      </c>
-      <c r="D38">
-        <v>10.5511504690324</v>
-      </c>
-      <c r="E38">
-        <v>13.64718395651025</v>
-      </c>
-      <c r="F38">
-        <v>20.60491462698503</v>
-      </c>
-      <c r="G38">
-        <v>22.31147154713924</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>7.319458871202344</v>
-      </c>
-      <c r="D39">
-        <v>8.227343208305776</v>
-      </c>
-      <c r="E39">
-        <v>9.254491777243667</v>
-      </c>
-      <c r="F39">
-        <v>14.33248014017093</v>
-      </c>
-      <c r="G39">
         <v>14.33710975193737</v>
       </c>
     </row>
